--- a/database/industries/dode/shekarbon/income/quarterly/dollar_cumulative.xlsx
+++ b/database/industries/dode/shekarbon/income/quarterly/dollar_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shekarbon\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shekarbon\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515D05A7-DC2E-45BA-AD0A-DCB4F05C64ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0A018A-64C6-4945-ACA9-385365101637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -622,7 +622,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
@@ -633,7 +633,7 @@
     <col min="11" max="13" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -647,7 +647,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -663,7 +663,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -679,7 +679,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -693,7 +693,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -709,7 +709,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -725,7 +725,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -739,7 +739,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -775,7 +775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -811,7 +811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -825,7 +825,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -861,7 +861,7 @@
         <v>38621</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
@@ -897,7 +897,7 @@
         <v>-29355</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
@@ -933,7 +933,7 @@
         <v>9266</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
@@ -969,7 +969,7 @@
         <v>-2208</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>32</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>33</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>7070</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>34</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>-87</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>35</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>36</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>7014</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>37</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>-1403</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>38</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>5611</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>39</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>5611</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>41</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>42</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>20079</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>43</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
